--- a/data/co2_emissions_tonnes_per_person_small.xlsx
+++ b/data/co2_emissions_tonnes_per_person_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ca987688ea844/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonMc\Documents\Flatiron\Population_and_CO2_emissions\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B2497060-99B3-4A5B-A1A4-4FC946167D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38AEA536-214D-4A1D-B158-AB354E0E7F87}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDB74E-F382-45C8-8017-DFCEF3F739A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="192" windowWidth="11412" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="co2_emissions_tonnes_per_person" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -645,7 +645,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1052,7 @@
         <v>28126</v>
       </c>
       <c r="T1" s="1">
-        <v>28941</v>
+        <v>28491</v>
       </c>
       <c r="U1" s="1">
         <v>28856</v>
